--- a/report/summary_NIKKEI_M5_2020-2023_4.xlsx
+++ b/report/summary_NIKKEI_M5_2020-2023_4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,7 +507,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -526,34 +526,187 @@
         <v>2023</v>
       </c>
       <c r="F2" t="n">
+        <v>90</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H2" t="n">
+        <v>150</v>
+      </c>
+      <c r="I2" t="n">
+        <v>300</v>
+      </c>
+      <c r="J2" t="n">
+        <v>50</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2840</v>
+      </c>
+      <c r="L2" t="n">
+        <v>22060</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-658</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2182</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.349818676337262</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>NIKKEI</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F3" t="n">
+        <v>50</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>450</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-22116</v>
+      </c>
+      <c r="L3" t="n">
+        <v>31562</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-644</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-22760</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.3624928711741968</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>NIKKEI</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F4" t="n">
         <v>10</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G4" t="n">
         <v>1.2</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H4" t="n">
         <v>100</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I4" t="n">
         <v>500</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J4" t="n">
         <v>100</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K4" t="n">
         <v>-38187</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L4" t="n">
         <v>25442</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M4" t="n">
         <v>-703</v>
       </c>
-      <c r="N2" t="n">
+      <c r="N4" t="n">
         <v>-38890</v>
       </c>
-      <c r="O2" t="n">
+      <c r="O4" t="n">
         <v>0.3160128920682336</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>NIKKEI</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F5" t="n">
+        <v>40</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="H5" t="n">
+        <v>400</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-45139</v>
+      </c>
+      <c r="L5" t="n">
+        <v>53355</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-1081</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-46220</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.3617842751382251</v>
       </c>
     </row>
   </sheetData>
